--- a/ADCVD_OBJECTS_DATES_VALIDATION/input_data/datapool/adcvd_datapool.xlsx
+++ b/ADCVD_OBJECTS_DATES_VALIDATION/input_data/datapool/adcvd_datapool.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A802B41B-01D1-4F91-8DFE-09FE3C227285}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35394EF-7F0A-4943-B12E-5C130A00CF0F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="7920" tabRatio="472" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="472" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1176,7 +1177,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="14.4"/>
@@ -1273,7 +1274,7 @@
         <v>110</v>
       </c>
       <c r="Q2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1314,7 +1315,7 @@
         <v>110</v>
       </c>
       <c r="Q3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1353,7 +1354,7 @@
         <v>110</v>
       </c>
       <c r="Q4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1390,7 +1391,7 @@
         <v>110</v>
       </c>
       <c r="Q5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1427,7 +1428,7 @@
         <v>110</v>
       </c>
       <c r="Q6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1505,7 +1506,7 @@
         <v>110</v>
       </c>
       <c r="Q8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1533,7 +1534,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1595,7 +1596,7 @@
         <v>115</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1619,7 +1620,7 @@
         <v>115</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ADCVD_OBJECTS_DATES_VALIDATION/input_data/datapool/adcvd_datapool.xlsx
+++ b/ADCVD_OBJECTS_DATES_VALIDATION/input_data/datapool/adcvd_datapool.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35394EF-7F0A-4943-B12E-5C130A00CF0F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB287674-2AD0-4CC0-8738-666E86A420D6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="472" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA0E8ED-866B-4194-9F84-7C98270F145A}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="14.4"/>
@@ -1391,7 +1391,7 @@
         <v>110</v>
       </c>
       <c r="Q5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1471,7 +1471,7 @@
         <v>110</v>
       </c>
       <c r="Q7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1534,7 +1534,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1596,7 +1596,7 @@
         <v>115</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1620,7 +1620,7 @@
         <v>115</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ADCVD_OBJECTS_DATES_VALIDATION/input_data/datapool/adcvd_datapool.xlsx
+++ b/ADCVD_OBJECTS_DATES_VALIDATION/input_data/datapool/adcvd_datapool.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB287674-2AD0-4CC0-8738-666E86A420D6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5399240-42E6-4C72-BB50-0BC067BC6E8B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="472" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Segments" sheetId="4" r:id="rId5"/>
     <sheet name="Litigations" sheetId="11" r:id="rId6"/>
     <sheet name="Tolling Dates" sheetId="10" r:id="rId7"/>
-    <sheet name="dropdowns" sheetId="7" r:id="rId8"/>
+    <sheet name="dropdowns" sheetId="7" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="CaseType">dropdowns!$B$1:$B$2</definedName>
@@ -48,12 +48,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="125">
   <si>
-    <t>TC_TAG_001</t>
-  </si>
-  <si>
-    <t>TC_TAG_002</t>
-  </si>
-  <si>
     <t>Test_Case_Name</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>Create AD/CVD Case</t>
   </si>
   <si>
-    <t>TC_TAG_003</t>
-  </si>
-  <si>
     <t>Create an investigation and validate calculated dates</t>
   </si>
   <si>
@@ -171,27 +162,6 @@
     <t>Segment_Type</t>
   </si>
   <si>
-    <t>TC_TAG_004</t>
-  </si>
-  <si>
-    <t>TC_TAG_005</t>
-  </si>
-  <si>
-    <t>TC_TAG_006</t>
-  </si>
-  <si>
-    <t>TC_TAG_007</t>
-  </si>
-  <si>
-    <t>TC_TAG_008</t>
-  </si>
-  <si>
-    <t>TC_TAG_009</t>
-  </si>
-  <si>
-    <t>TC_TAG_010</t>
-  </si>
-  <si>
     <t>Create and validate 'Administrative Review' segment</t>
   </si>
   <si>
@@ -216,9 +186,6 @@
     <t>Create New Order</t>
   </si>
   <si>
-    <t>TC_TAG_011</t>
-  </si>
-  <si>
     <t>Create_Order</t>
   </si>
   <si>
@@ -381,15 +348,9 @@
     <t>select+id,Name,Prelim_Extension__c,Status__c,Actual_Initiation_Signature__c,Decision_on_How_to_Proceed__c,Memorandum_on_Adequacy_Determination__c,Calculated_Final_FR_Signature__c,Amended_Final_Announcement_Date__c,Rebuttal_Comments_Due__c,Adequacy_Determination_Letter_to_ITC__c,Comments_on_Adequacy_Determination_Filed__c,Issue_Liquidation_Revocation_Instruction__c,Inadequate_Domestic_Response_note_to_ITC__c,Update_ACE_Customs_Module__c,Inform_Cluster_Coordinator_if_No_Respons__c,Notify_Cluster_Coordinator_No_Interest__c,Substantive_Response_Due_For_All_Parties__c,Notice_of_Intent_to_Participate__c,Actual_Decision_on_HOP_Issues_to_DAS__c,Actual_Decision_on_HOP_Concurrence_toDAS__c,Decision_on_HOP_Concurrence_Due_to_DAS__c,Decision_on_HOP_Issues_Due_to_DAS__c,Deadline_for_Decision_on_How_to_Proceed__c,Actual_Date_of_Decision_on_HoP__c,Request_Filed__c,Initiation_Issues_Due_to_DAS__c,Is_this_review_expedited__c,All_parties_in_agreement_to_the_outcome__c,Initiation_Concurrence_Due_to_DAS__c,Initiation_Extension_of_days__c,Calculated_Initiation_Signature__c,Application_Accepted__c,Actual_Initiation_Issues_to_DAS__c,Actual_Initiation_Concurrence_to_DAS__c,Prelim_Concurrence_Due_to_DAS__c,Final_Date_of_Anniversary_Month__c,Prelim_Issues_Due_to_DAS__c,Prelim_Team_Meeting_Deadline__c,Calculated_Preliminary_Signature__c,Actual_Preliminary_Signature__c,Final_Extension_of_days__c,Actual_Final_Signature__c,Actual_Amended_Final_Signature__c,Will_you_Amend_the_Final__c,Calculated_Amended_Final_Signature__c,Segment_Outcome__c,Actual_Prelim_Issues_to_DAS__c,Actual_Prelim_Concurrence_to_DAS__c,Actual_Final_Issues_to_DAS__c,Actual_Final_Concurrence_to_DAS__c,Amend_Final_Issues_Due_to_DAS__c,Amend_Final_Concurrence_Due_to_DAS__c,Actual_Amend_Final_Issues_to_DAS__c,Actual_Amend_Final_Concurrence_to_DAS__c,Next_Announcement_Date__c,Next_Office_Deadline__c,Next_Due_to_DAS_Deadline__c,Next_Major_Deadline__c,Final_Announcement_Date__c,Calculated_Final_Signature__c,Final_Concurrence_Due_to_DAS__c,Final_Issues_Due_to_DAS__c,Final_Team_Meeting_Deadline__c,Preliminary_Announcement_Date__c+from+segment__c+where+id='segmentId'</t>
   </si>
   <si>
-    <t>TC_TAG_012</t>
-  </si>
-  <si>
     <t>create international litigation</t>
   </si>
   <si>
-    <t>TC_TAG_013</t>
-  </si>
-  <si>
     <t>create Remand</t>
   </si>
   <si>
@@ -421,6 +382,45 @@
   </si>
   <si>
     <t>Create_And_Validate_Segment_Sunset_Review</t>
+  </si>
+  <si>
+    <t>TC_TAG_016</t>
+  </si>
+  <si>
+    <t>TC_TAG_017</t>
+  </si>
+  <si>
+    <t>TC_TAG_018</t>
+  </si>
+  <si>
+    <t>TC_TAG_019</t>
+  </si>
+  <si>
+    <t>TC_TAG_020</t>
+  </si>
+  <si>
+    <t>TC_TAG_021</t>
+  </si>
+  <si>
+    <t>TC_TAG_022</t>
+  </si>
+  <si>
+    <t>TC_TAG_023</t>
+  </si>
+  <si>
+    <t>TC_TAG_024</t>
+  </si>
+  <si>
+    <t>TC_TAG_025</t>
+  </si>
+  <si>
+    <t>TC_TAG_026</t>
+  </si>
+  <si>
+    <t>TC_TAG_027</t>
+  </si>
+  <si>
+    <t>TC_TAG_028</t>
   </si>
 </sst>
 </file>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -865,37 +865,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -903,31 +903,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -955,7 +955,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -972,28 +972,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1001,22 +1001,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1054,25 +1054,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1080,19 +1080,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1130,19 +1130,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1150,13 +1150,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1176,12 +1176,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA0E8ED-866B-4194-9F84-7C98270F145A}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
     <col min="2" max="2" width="58.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="34.44140625" customWidth="1"/>
@@ -1189,55 +1190,55 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.399999999999999" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1245,19 +1246,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1268,13 +1269,13 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="Q2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1282,26 +1283,26 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1309,13 +1310,13 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="Q3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1323,24 +1324,24 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1348,13 +1349,13 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="Q4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1362,33 +1363,33 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="Q5" t="b">
         <v>1</v>
@@ -1399,36 +1400,36 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="Q6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1436,42 +1437,42 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="Q7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1479,16 +1480,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1500,13 +1501,13 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="Q8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1534,7 +1535,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1551,28 +1552,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1580,20 +1581,20 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1604,20 +1605,20 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -1638,39 +1639,39 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1678,13 +1679,13 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1692,13 +1693,13 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1">
       <c r="A4" s="12" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1706,13 +1707,13 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1">
       <c r="A5" s="10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1720,13 +1721,13 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1758,22 +1759,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G1" t="b">
         <v>1</v>
@@ -1781,22 +1782,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -1804,53 +1805,53 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="E4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="F6" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
